--- a/excel/ingredient2018117.xlsx
+++ b/excel/ingredient2018117.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
   <si>
     <t>供餐日期</t>
   </si>
@@ -83,7 +83,7 @@
     <t>新加南食品行</t>
   </si>
   <si>
-    <t>25.8斤</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,13 +98,13 @@
     <t>豬肉塊(瘦肉)</t>
   </si>
   <si>
-    <t>9斤</t>
+    <t>5.3999999999999995</t>
   </si>
   <si>
     <t>洋蔥</t>
   </si>
   <si>
-    <t>2斤</t>
+    <t>1.2</t>
   </si>
   <si>
     <t>滷包心白豆皮</t>
@@ -113,13 +113,13 @@
     <t>包心白</t>
   </si>
   <si>
-    <t>10斤</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>豆皮</t>
   </si>
   <si>
-    <t>(庫存)</t>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>吻仔魚炒蛋</t>
@@ -128,7 +128,7 @@
     <t>吻仔魚</t>
   </si>
   <si>
-    <t>0.5斤</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>八寶粥</t>
@@ -137,9 +137,6 @@
     <t>紅豆</t>
   </si>
   <si>
-    <t>1包</t>
-  </si>
-  <si>
     <t>綠豆</t>
   </si>
   <si>
@@ -149,13 +146,10 @@
     <t>紫米</t>
   </si>
   <si>
-    <t>1斤</t>
+    <t>0.6</t>
   </si>
   <si>
     <t>燕麥</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.25斤</t>
   </si>
 </sst>
 </file>
@@ -562,7 +556,7 @@
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
@@ -583,7 +577,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -607,7 +601,7 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
@@ -628,7 +622,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
@@ -652,7 +646,7 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O10" t="s">
         <v>24</v>
@@ -673,7 +667,7 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
@@ -697,7 +691,7 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O11" t="s">
         <v>24</v>
@@ -718,7 +712,7 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -742,7 +736,7 @@
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O12" t="s">
         <v>24</v>
